--- a/classification_logics.xlsx
+++ b/classification_logics.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J126"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2937,31 +2937,31 @@
         <v>79</v>
       </c>
       <c r="B80" t="str">
-        <v>H1 Logic</v>
+        <v>Auto</v>
       </c>
       <c r="C80" t="str">
-        <v>H1 Logic</v>
+        <v>Fixed Assets - PPE</v>
       </c>
       <c r="D80" t="str">
-        <v/>
+        <v>Fixed Assets | PPE | Property Plant and Equipment | Property Plant &amp; Equipment</v>
       </c>
       <c r="E80" t="str">
-        <v>Primary Group contains 'Sales Accounts'</v>
+        <v>freehold land | land freehold | owned land | plot | land asset | land property</v>
       </c>
       <c r="F80" t="str">
-        <v/>
+        <v>Any</v>
       </c>
       <c r="G80" t="str">
-        <v>H1 = Income</v>
+        <v>Asset</v>
       </c>
       <c r="H80" t="str">
-        <v/>
+        <v>Property, Plant and Equipment</v>
       </c>
       <c r="I80" t="str">
-        <v/>
+        <v>Gross Block - Freehold Land</v>
       </c>
       <c r="J80" t="str">
-        <v>Sales Accounts always Income</v>
+        <v>Ledger/Parent keyword match (whole words)</v>
       </c>
     </row>
     <row r="81">
@@ -2969,31 +2969,31 @@
         <v>80</v>
       </c>
       <c r="B81" t="str">
-        <v>H1 Logic</v>
+        <v>Auto</v>
       </c>
       <c r="C81" t="str">
-        <v>H1 Logic</v>
+        <v>Fixed Assets - PPE</v>
       </c>
       <c r="D81" t="str">
-        <v/>
+        <v>Fixed Assets | PPE | Property Plant and Equipment | Property Plant &amp; Equipment</v>
       </c>
       <c r="E81" t="str">
-        <v>Is Revenue = Yes and Balance &lt; 0</v>
+        <v>leasehold land | land leasehold | leased land | land on lease | long term lease land</v>
       </c>
       <c r="F81" t="str">
-        <v/>
+        <v>Any</v>
       </c>
       <c r="G81" t="str">
-        <v>H1 = Expense</v>
+        <v>Asset</v>
       </c>
       <c r="H81" t="str">
-        <v/>
+        <v>Property, Plant and Equipment</v>
       </c>
       <c r="I81" t="str">
-        <v/>
+        <v>Gross Block - Leasehold Land</v>
       </c>
       <c r="J81" t="str">
-        <v>Revenue accounts</v>
+        <v>Ledger/Parent keyword match (whole words)</v>
       </c>
     </row>
     <row r="82">
@@ -3001,31 +3001,31 @@
         <v>81</v>
       </c>
       <c r="B82" t="str">
-        <v>H1 Logic</v>
+        <v>Auto</v>
       </c>
       <c r="C82" t="str">
-        <v>H1 Logic</v>
+        <v>Fixed Assets - PPE</v>
       </c>
       <c r="D82" t="str">
-        <v/>
+        <v>Fixed Assets | PPE | Property Plant and Equipment | Property Plant &amp; Equipment</v>
       </c>
       <c r="E82" t="str">
-        <v>Is Revenue = Yes and Balance &gt;= 0</v>
+        <v>leasehold improvement | lease improvement | lease renovation | lease fit out | lease interior | tenant improvement</v>
       </c>
       <c r="F82" t="str">
-        <v/>
+        <v>Any</v>
       </c>
       <c r="G82" t="str">
-        <v>H1 = Income</v>
+        <v>Asset</v>
       </c>
       <c r="H82" t="str">
-        <v/>
+        <v>Property, Plant and Equipment</v>
       </c>
       <c r="I82" t="str">
-        <v/>
+        <v>Gross Block - Leasehold Improvement</v>
       </c>
       <c r="J82" t="str">
-        <v>Revenue accounts</v>
+        <v>Ledger/Parent keyword match (whole words)</v>
       </c>
     </row>
     <row r="83">
@@ -3033,31 +3033,31 @@
         <v>82</v>
       </c>
       <c r="B83" t="str">
-        <v>H1 Logic</v>
+        <v>Auto</v>
       </c>
       <c r="C83" t="str">
-        <v>H1 Logic</v>
+        <v>Fixed Assets - PPE</v>
       </c>
       <c r="D83" t="str">
-        <v/>
+        <v>Fixed Assets | PPE | Property Plant and Equipment | Property Plant &amp; Equipment</v>
       </c>
       <c r="E83" t="str">
-        <v>Is Revenue = No and Balance &lt; 0</v>
+        <v>office building | factory building | warehouse | godown | commercial building | civil construction | structure | building</v>
       </c>
       <c r="F83" t="str">
-        <v/>
+        <v>Any</v>
       </c>
       <c r="G83" t="str">
-        <v>H1 = Asset</v>
+        <v>Asset</v>
       </c>
       <c r="H83" t="str">
-        <v/>
+        <v>Property, Plant and Equipment</v>
       </c>
       <c r="I83" t="str">
-        <v/>
+        <v>Gross Block - Buildings</v>
       </c>
       <c r="J83" t="str">
-        <v>Non-revenue accounts</v>
+        <v>Ledger/Parent keyword match (whole words)</v>
       </c>
     </row>
     <row r="84">
@@ -3065,31 +3065,31 @@
         <v>83</v>
       </c>
       <c r="B84" t="str">
-        <v>H1 Logic</v>
+        <v>Auto</v>
       </c>
       <c r="C84" t="str">
-        <v>H1 Logic</v>
+        <v>Fixed Assets - PPE</v>
       </c>
       <c r="D84" t="str">
-        <v/>
+        <v>Fixed Assets | PPE | Property Plant and Equipment | Property Plant &amp; Equipment</v>
       </c>
       <c r="E84" t="str">
-        <v>Is Revenue = No and Balance &gt;= 0</v>
+        <v>production machinery | manufacturing equipment | tools and machinery | equipment industrial | machinery | machine | plant</v>
       </c>
       <c r="F84" t="str">
-        <v/>
+        <v>Any</v>
       </c>
       <c r="G84" t="str">
-        <v>H1 = Liability</v>
+        <v>Asset</v>
       </c>
       <c r="H84" t="str">
-        <v/>
+        <v>Property, Plant and Equipment</v>
       </c>
       <c r="I84" t="str">
-        <v/>
+        <v>Gross Block - Plant and Machinery</v>
       </c>
       <c r="J84" t="str">
-        <v>Non-revenue accounts</v>
+        <v>Ledger/Parent keyword match (whole words)</v>
       </c>
     </row>
     <row r="85">
@@ -3097,36 +3097,1348 @@
         <v>84</v>
       </c>
       <c r="B85" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Fixed Assets - PPE</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Fixed Assets | PPE | Property Plant and Equipment | Property Plant &amp; Equipment</v>
+      </c>
+      <c r="E85" t="str">
+        <v>office furniture | furniture | fixtures | desk | table | chair | workstation | cabinet | cupboard | rack | shelf</v>
+      </c>
+      <c r="F85" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G85" t="str">
+        <v>Asset</v>
+      </c>
+      <c r="H85" t="str">
+        <v>Property, Plant and Equipment</v>
+      </c>
+      <c r="I85" t="str">
+        <v>Gross Block - Furniture and Fixtures</v>
+      </c>
+      <c r="J85" t="str">
+        <v>Ledger/Parent keyword match (whole words)</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Fixed Assets - PPE</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Fixed Assets | PPE | Property Plant and Equipment | Property Plant &amp; Equipment</v>
+      </c>
+      <c r="E86" t="str">
+        <v>electrical installation | electrical fitting | wiring | cabling | switchboard | panel board | transformer | generator | dg set | power installation</v>
+      </c>
+      <c r="F86" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G86" t="str">
+        <v>Asset</v>
+      </c>
+      <c r="H86" t="str">
+        <v>Property, Plant and Equipment</v>
+      </c>
+      <c r="I86" t="str">
+        <v>Gross Block - Electrical Installations</v>
+      </c>
+      <c r="J86" t="str">
+        <v>Ledger/Parent keyword match (whole words)</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Fixed Assets - PPE</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Fixed Assets | PPE | Property Plant and Equipment | Property Plant &amp; Equipment</v>
+      </c>
+      <c r="E87" t="str">
+        <v>office equipment | printer | scanner | photocopier | copier machine | xerox | projector | shredder | laminator | biometric machine | attendance machine</v>
+      </c>
+      <c r="F87" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G87" t="str">
+        <v>Asset</v>
+      </c>
+      <c r="H87" t="str">
+        <v>Property, Plant and Equipment</v>
+      </c>
+      <c r="I87" t="str">
+        <v>Gross Block - Office Equipment</v>
+      </c>
+      <c r="J87" t="str">
+        <v>Ledger/Parent keyword match (whole words)</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Fixed Assets - PPE</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Fixed Assets | PPE | Property Plant and Equipment | Property Plant &amp; Equipment</v>
+      </c>
+      <c r="E88" t="str">
+        <v>computer | desktop | laptop | notebook | server | workstation | cpu | monitor | ups | router | switch | networking equipment</v>
+      </c>
+      <c r="F88" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G88" t="str">
+        <v>Asset</v>
+      </c>
+      <c r="H88" t="str">
+        <v>Property, Plant and Equipment</v>
+      </c>
+      <c r="I88" t="str">
+        <v>Gross Block - Computers</v>
+      </c>
+      <c r="J88" t="str">
+        <v>Ledger/Parent keyword match (whole words)</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Fixed Assets - PPE</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Fixed Assets | PPE | Property Plant and Equipment | Property Plant &amp; Equipment</v>
+      </c>
+      <c r="E89" t="str">
+        <v>commercial vehicle | vehicle | car | truck | lorry | van | bus | two wheeler | scooter | bike</v>
+      </c>
+      <c r="F89" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G89" t="str">
+        <v>Asset</v>
+      </c>
+      <c r="H89" t="str">
+        <v>Property, Plant and Equipment</v>
+      </c>
+      <c r="I89" t="str">
+        <v>Gross Block - Vehicles</v>
+      </c>
+      <c r="J89" t="str">
+        <v>Ledger/Parent keyword match (whole words)</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Fixed Assets - PPE</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Fixed Assets | PPE | Property Plant and Equipment | Property Plant &amp; Equipment</v>
+      </c>
+      <c r="E90" t="str">
+        <v>capital work in progress | cwip | capital wip | asset under construction | project under construction | work in progress capital | incomplete asset</v>
+      </c>
+      <c r="F90" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G90" t="str">
+        <v>Asset</v>
+      </c>
+      <c r="H90" t="str">
+        <v>Property, Plant and Equipment</v>
+      </c>
+      <c r="I90" t="str">
+        <v>Gross Block - Capital Work-in-Progress (CWIP)</v>
+      </c>
+      <c r="J90" t="str">
+        <v>Ledger/Parent keyword match (whole words)</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Fixed Assets - Intangible</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Fixed Assets | Intangible | Goodwill | Software</v>
+      </c>
+      <c r="E91" t="str">
+        <v>goodwill | business goodwill | purchased goodwill | goodwill asset</v>
+      </c>
+      <c r="F91" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G91" t="str">
+        <v>Asset</v>
+      </c>
+      <c r="H91" t="str">
+        <v>Property, Plant and Equipment</v>
+      </c>
+      <c r="I91" t="str">
+        <v>Gross Block - Goodwill</v>
+      </c>
+      <c r="J91" t="str">
+        <v>Ledger/Parent keyword match (whole words)</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Fixed Assets - Intangible</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Fixed Assets | Intangible | Goodwill | Software</v>
+      </c>
+      <c r="E92" t="str">
+        <v>goodwill on consolidation | consolidation goodwill | goodwill arising on merger | merger goodwill | amalgamation goodwill | acquisition goodwill</v>
+      </c>
+      <c r="F92" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G92" t="str">
+        <v>Asset</v>
+      </c>
+      <c r="H92" t="str">
+        <v>Property, Plant and Equipment</v>
+      </c>
+      <c r="I92" t="str">
+        <v>Gross Block - Goodwill on Consolidation</v>
+      </c>
+      <c r="J92" t="str">
+        <v>Ledger/Parent keyword match (whole words)</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Fixed Assets - Intangible</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Fixed Assets | Intangible | Goodwill | Software</v>
+      </c>
+      <c r="E93" t="str">
+        <v>computer software | application software | system software | accounting software | licensed software | software license | software | erp | saas</v>
+      </c>
+      <c r="F93" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G93" t="str">
+        <v>Asset</v>
+      </c>
+      <c r="H93" t="str">
+        <v>Property, Plant and Equipment</v>
+      </c>
+      <c r="I93" t="str">
+        <v>Gross Block - Computer Software</v>
+      </c>
+      <c r="J93" t="str">
+        <v>Ledger/Parent keyword match (whole words)</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Fixed Assets - Intangible</v>
+      </c>
+      <c r="D94" t="str">
+        <v>Fixed Assets | Intangible | Goodwill | Software</v>
+      </c>
+      <c r="E94" t="str">
+        <v>trademark | trade mark | brand | brand name | logo | brand rights | trademark rights | brand license</v>
+      </c>
+      <c r="F94" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G94" t="str">
+        <v>Asset</v>
+      </c>
+      <c r="H94" t="str">
+        <v>Property, Plant and Equipment</v>
+      </c>
+      <c r="I94" t="str">
+        <v>Gross Block - Trademarks and Brands</v>
+      </c>
+      <c r="J94" t="str">
+        <v>Ledger/Parent keyword match (whole words)</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Fixed Assets - Intangible</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Fixed Assets | Intangible | Goodwill | Software</v>
+      </c>
+      <c r="E95" t="str">
+        <v>technical knowhow | technical know-how | knowhow | process knowhow | manufacturing knowhow | technology knowhow | technical collaboration</v>
+      </c>
+      <c r="F95" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G95" t="str">
+        <v>Asset</v>
+      </c>
+      <c r="H95" t="str">
+        <v>Property, Plant and Equipment</v>
+      </c>
+      <c r="I95" t="str">
+        <v>Gross Block - Technical Knowhow</v>
+      </c>
+      <c r="J95" t="str">
+        <v>Ledger/Parent keyword match (whole words)</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Fixed Assets - Intangible</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Fixed Assets | Intangible | Goodwill | Software</v>
+      </c>
+      <c r="E96" t="str">
+        <v>intangible under development | intangible wip | cwip intangible | capital work in progress intangible | software under development | development cost intangible</v>
+      </c>
+      <c r="F96" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G96" t="str">
+        <v>Asset</v>
+      </c>
+      <c r="H96" t="str">
+        <v>Property, Plant and Equipment</v>
+      </c>
+      <c r="I96" t="str">
+        <v>Gross Block - Intangible Assets under Development</v>
+      </c>
+      <c r="J96" t="str">
+        <v>Ledger/Parent keyword match (whole words)</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Fixed Assets - Intangible</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Fixed Assets | Intangible | Goodwill | Software</v>
+      </c>
+      <c r="E97" t="str">
+        <v>intangible asset | intangible assets others | intellectual property | ip rights | business rights | commercial rights | franchise rights | license rights</v>
+      </c>
+      <c r="F97" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G97" t="str">
+        <v>Asset</v>
+      </c>
+      <c r="H97" t="str">
+        <v>Property, Plant and Equipment</v>
+      </c>
+      <c r="I97" t="str">
+        <v>Gross Block - Others (Intangible)</v>
+      </c>
+      <c r="J97" t="str">
+        <v>Ledger/Parent keyword match (whole words)</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Cash and Bank Balances</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Cash-in-Hand</v>
+      </c>
+      <c r="E98" t="str">
+        <v>cash</v>
+      </c>
+      <c r="F98" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G98" t="str">
+        <v>Asset</v>
+      </c>
+      <c r="H98" t="str">
+        <v>Cash and Bank Balances</v>
+      </c>
+      <c r="I98" t="str">
+        <v>Cash on hand</v>
+      </c>
+      <c r="J98" t="str">
+        <v>Primary Group Cash-in-Hand + cash keyword</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Cash and Bank Balances</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Bank Accounts</v>
+      </c>
+      <c r="E99" t="str">
+        <v>eefc | exchange earners foreign currency</v>
+      </c>
+      <c r="F99" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G99" t="str">
+        <v>Asset</v>
+      </c>
+      <c r="H99" t="str">
+        <v>Cash and Bank Balances</v>
+      </c>
+      <c r="I99" t="str">
+        <v>EEFC Account</v>
+      </c>
+      <c r="J99" t="str">
+        <v>Priority: EEFC</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Cash and Bank Balances</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Bank Accounts</v>
+      </c>
+      <c r="E100" t="str">
+        <v>margin money | margin | lien | lien marked</v>
+      </c>
+      <c r="F100" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G100" t="str">
+        <v>Asset</v>
+      </c>
+      <c r="H100" t="str">
+        <v>Cash and Bank Balances</v>
+      </c>
+      <c r="I100" t="str">
+        <v>Bank balances held as margin money</v>
+      </c>
+      <c r="J100" t="str">
+        <v>Priority: margin money</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Cash and Bank Balances</v>
+      </c>
+      <c r="D101" t="str">
+        <v>Bank Accounts</v>
+      </c>
+      <c r="E101" t="str">
+        <v>security | secured | collateral | against borrowing | against loan | loan security</v>
+      </c>
+      <c r="F101" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G101" t="str">
+        <v>Asset</v>
+      </c>
+      <c r="H101" t="str">
+        <v>Cash and Bank Balances</v>
+      </c>
+      <c r="I101" t="str">
+        <v>Bank balances held as security against borrowings</v>
+      </c>
+      <c r="J101" t="str">
+        <v>Priority: security against borrowings</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Cash and Bank Balances</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Bank Accounts</v>
+      </c>
+      <c r="E102" t="str">
+        <v>cheque | draft | dd</v>
+      </c>
+      <c r="F102" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G102" t="str">
+        <v>Asset</v>
+      </c>
+      <c r="H102" t="str">
+        <v>Cash and Bank Balances</v>
+      </c>
+      <c r="I102" t="str">
+        <v>Cheques, drafts on hand</v>
+      </c>
+      <c r="J102" t="str">
+        <v>Priority: cheques/drafts</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Cash and Bank Balances</v>
+      </c>
+      <c r="D103" t="str">
+        <v>Bank Accounts</v>
+      </c>
+      <c r="E103" t="str">
+        <v>fd | fdr | fixed deposit | term deposit | td | deposit + 3 months | 90 days | upto 3 months | short term | st</v>
+      </c>
+      <c r="F103" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G103" t="str">
+        <v>Asset</v>
+      </c>
+      <c r="H103" t="str">
+        <v>Cash and Bank Balances</v>
+      </c>
+      <c r="I103" t="str">
+        <v>Bank deposits with upto three months maturity</v>
+      </c>
+      <c r="J103" t="str">
+        <v>Priority: deposits &lt;= 3 months</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Cash and Bank Balances</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Bank Accounts</v>
+      </c>
+      <c r="E104" t="str">
+        <v>fd | fdr | fixed deposit | term deposit | td | deposit + 12 months | 365 days | 1 year | upto 12 months</v>
+      </c>
+      <c r="F104" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G104" t="str">
+        <v>Asset</v>
+      </c>
+      <c r="H104" t="str">
+        <v>Cash and Bank Balances</v>
+      </c>
+      <c r="I104" t="str">
+        <v>Bank deposits with upto twelve months maturity</v>
+      </c>
+      <c r="J104" t="str">
+        <v>Priority: deposits &lt;= 12 months</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C105" t="str">
+        <v>Cash and Bank Balances</v>
+      </c>
+      <c r="D105" t="str">
+        <v>Bank Accounts</v>
+      </c>
+      <c r="E105" t="str">
+        <v>saving | sb</v>
+      </c>
+      <c r="F105" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G105" t="str">
+        <v>Asset</v>
+      </c>
+      <c r="H105" t="str">
+        <v>Cash and Bank Balances</v>
+      </c>
+      <c r="I105" t="str">
+        <v>Balances with banks in savings accounts</v>
+      </c>
+      <c r="J105" t="str">
+        <v>Priority: savings</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Cash and Bank Balances</v>
+      </c>
+      <c r="D106" t="str">
+        <v>Bank Accounts</v>
+      </c>
+      <c r="E106" t="str">
+        <v>current | ca</v>
+      </c>
+      <c r="F106" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G106" t="str">
+        <v>Asset</v>
+      </c>
+      <c r="H106" t="str">
+        <v>Cash and Bank Balances</v>
+      </c>
+      <c r="I106" t="str">
+        <v>Balances with banks in current accounts</v>
+      </c>
+      <c r="J106" t="str">
+        <v>Priority: current</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Cash and Bank Balances</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Bank Accounts</v>
+      </c>
+      <c r="E107" t="str">
+        <v>(none matched)</v>
+      </c>
+      <c r="F107" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G107" t="str">
+        <v>Asset</v>
+      </c>
+      <c r="H107" t="str">
+        <v>Cash and Bank Balances</v>
+      </c>
+      <c r="I107" t="str">
+        <v>Other bank balances</v>
+      </c>
+      <c r="J107" t="str">
+        <v>Default bank accounts</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Capital Account - Reserves and Surplus</v>
+      </c>
+      <c r="D108" t="str">
+        <v>Capital Account + Reserves and Surplus</v>
+      </c>
+      <c r="E108" t="str">
+        <v>capital reserve</v>
+      </c>
+      <c r="F108" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G108" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="H108" t="str">
+        <v>Reserves and Surplus</v>
+      </c>
+      <c r="I108" t="str">
+        <v>Capital Reserve</v>
+      </c>
+      <c r="J108" t="str">
+        <v>Overrides H1 to Liability</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Capital Account - Reserves and Surplus</v>
+      </c>
+      <c r="D109" t="str">
+        <v>Capital Account + Reserves and Surplus</v>
+      </c>
+      <c r="E109" t="str">
+        <v>securities premium</v>
+      </c>
+      <c r="F109" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G109" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="H109" t="str">
+        <v>Reserves and Surplus</v>
+      </c>
+      <c r="I109" t="str">
+        <v>Securities Premium</v>
+      </c>
+      <c r="J109" t="str">
+        <v>Overrides H1 to Liability</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Capital Account - Reserves and Surplus</v>
+      </c>
+      <c r="D110" t="str">
+        <v>Capital Account + Reserves and Surplus</v>
+      </c>
+      <c r="E110" t="str">
+        <v>capital redemption</v>
+      </c>
+      <c r="F110" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G110" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="H110" t="str">
+        <v>Reserves and Surplus</v>
+      </c>
+      <c r="I110" t="str">
+        <v>Capital Redemption Reserve</v>
+      </c>
+      <c r="J110" t="str">
+        <v>Overrides H1 to Liability</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Capital Account - Reserves and Surplus</v>
+      </c>
+      <c r="D111" t="str">
+        <v>Capital Account + Reserves and Surplus</v>
+      </c>
+      <c r="E111" t="str">
+        <v>debenture</v>
+      </c>
+      <c r="F111" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G111" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="H111" t="str">
+        <v>Reserves and Surplus</v>
+      </c>
+      <c r="I111" t="str">
+        <v>Debenture Redemption Reserve</v>
+      </c>
+      <c r="J111" t="str">
+        <v>Overrides H1 to Liability</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Capital Account - Reserves and Surplus</v>
+      </c>
+      <c r="D112" t="str">
+        <v>Capital Account + Reserves and Surplus</v>
+      </c>
+      <c r="E112" t="str">
+        <v>revaluation</v>
+      </c>
+      <c r="F112" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G112" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="H112" t="str">
+        <v>Reserves and Surplus</v>
+      </c>
+      <c r="I112" t="str">
+        <v>Revaluation Reserve</v>
+      </c>
+      <c r="J112" t="str">
+        <v>Overrides H1 to Liability</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Capital Account - Reserves and Surplus</v>
+      </c>
+      <c r="D113" t="str">
+        <v>Capital Account + Reserves and Surplus</v>
+      </c>
+      <c r="E113" t="str">
+        <v>share option</v>
+      </c>
+      <c r="F113" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G113" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="H113" t="str">
+        <v>Reserves and Surplus</v>
+      </c>
+      <c r="I113" t="str">
+        <v>Share Option Outstanding Account</v>
+      </c>
+      <c r="J113" t="str">
+        <v>Overrides H1 to Liability</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Capital Account - Reserves and Surplus</v>
+      </c>
+      <c r="D114" t="str">
+        <v>Capital Account + Reserves and Surplus</v>
+      </c>
+      <c r="E114" t="str">
+        <v>general</v>
+      </c>
+      <c r="F114" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G114" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="H114" t="str">
+        <v>Reserves and Surplus</v>
+      </c>
+      <c r="I114" t="str">
+        <v>General Reserve</v>
+      </c>
+      <c r="J114" t="str">
+        <v>Overrides H1 to Liability</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Capital Account - Reserves and Surplus</v>
+      </c>
+      <c r="D115" t="str">
+        <v>Capital Account + Reserves and Surplus</v>
+      </c>
+      <c r="E115" t="str">
+        <v>(none matched)</v>
+      </c>
+      <c r="F115" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G115" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="H115" t="str">
+        <v>Reserves and Surplus</v>
+      </c>
+      <c r="I115" t="str">
+        <v>Surplus in Statement of Profit and Loss</v>
+      </c>
+      <c r="J115" t="str">
+        <v>Default</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C116" t="str">
+        <v>Capital Account</v>
+      </c>
+      <c r="D116" t="str">
+        <v>Capital Account (Company only)</v>
+      </c>
+      <c r="E116" t="str">
+        <v>share capital</v>
+      </c>
+      <c r="F116" t="str">
+        <v>Company</v>
+      </c>
+      <c r="G116" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="H116" t="str">
+        <v>Share Capital</v>
+      </c>
+      <c r="I116" t="str">
+        <v>Equity - fully paid up</v>
+      </c>
+      <c r="J116" t="str">
+        <v>Company entities only</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Capital Account</v>
+      </c>
+      <c r="D117" t="str">
+        <v>Capital Account (Company only)</v>
+      </c>
+      <c r="E117" t="str">
+        <v>preference</v>
+      </c>
+      <c r="F117" t="str">
+        <v>Company</v>
+      </c>
+      <c r="G117" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="H117" t="str">
+        <v>Share Capital</v>
+      </c>
+      <c r="I117" t="str">
+        <v>Preference - fully paid up</v>
+      </c>
+      <c r="J117" t="str">
+        <v>Company entities only</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C118" t="str">
+        <v>Capital Account</v>
+      </c>
+      <c r="D118" t="str">
+        <v>Capital Account (Partnership/LLP only)</v>
+      </c>
+      <c r="E118" t="str">
+        <v>(all)</v>
+      </c>
+      <c r="F118" t="str">
+        <v>Partnership/LLP</v>
+      </c>
+      <c r="G118" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="H118" t="str">
+        <v>Partners' Capital Account</v>
+      </c>
+      <c r="I118" t="str">
+        <v>Partners' Capital Account</v>
+      </c>
+      <c r="J118" t="str">
+        <v>Partnership/LLP entities only</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C119" t="str">
+        <v>Capital Account</v>
+      </c>
+      <c r="D119" t="str">
+        <v>Capital Account (Other entities)</v>
+      </c>
+      <c r="E119" t="str">
+        <v>(all)</v>
+      </c>
+      <c r="F119" t="str">
+        <v>Other</v>
+      </c>
+      <c r="G119" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="H119" t="str">
+        <v>Owners' Capital Account</v>
+      </c>
+      <c r="I119" t="str">
+        <v>Owners' Capital Account</v>
+      </c>
+      <c r="J119" t="str">
+        <v>Individual/HUF/Sole Proprietorship</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C120" t="str">
+        <v>Profit &amp; Loss A/c Override</v>
+      </c>
+      <c r="D120" t="str">
+        <v>Parent/Group = Primary</v>
+      </c>
+      <c r="E120" t="str">
+        <v>profit | loss | profit &amp; loss</v>
+      </c>
+      <c r="F120" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G120" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="H120" t="str">
+        <v>Reserves and Surplus</v>
+      </c>
+      <c r="I120" t="str">
+        <v>Surplus in Statement of Profit and Loss</v>
+      </c>
+      <c r="J120" t="str">
+        <v>Overrides H1 to Liability</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="str">
         <v>H1 Logic</v>
       </c>
-      <c r="C85" t="str">
+      <c r="C121" t="str">
         <v>H1 Logic</v>
       </c>
-      <c r="D85" t="str">
+      <c r="D121" t="str">
         <v/>
       </c>
-      <c r="E85" t="str">
+      <c r="E121" t="str">
+        <v>Primary Group contains 'Sales Accounts'</v>
+      </c>
+      <c r="F121" t="str">
+        <v/>
+      </c>
+      <c r="G121" t="str">
+        <v>H1 = Income</v>
+      </c>
+      <c r="H121" t="str">
+        <v/>
+      </c>
+      <c r="I121" t="str">
+        <v/>
+      </c>
+      <c r="J121" t="str">
+        <v>Sales Accounts always Income</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="str">
+        <v>H1 Logic</v>
+      </c>
+      <c r="C122" t="str">
+        <v>H1 Logic</v>
+      </c>
+      <c r="D122" t="str">
+        <v/>
+      </c>
+      <c r="E122" t="str">
+        <v>Is Revenue = Yes and Balance &lt; 0</v>
+      </c>
+      <c r="F122" t="str">
+        <v/>
+      </c>
+      <c r="G122" t="str">
+        <v>H1 = Expense</v>
+      </c>
+      <c r="H122" t="str">
+        <v/>
+      </c>
+      <c r="I122" t="str">
+        <v/>
+      </c>
+      <c r="J122" t="str">
+        <v>Revenue accounts</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="str">
+        <v>H1 Logic</v>
+      </c>
+      <c r="C123" t="str">
+        <v>H1 Logic</v>
+      </c>
+      <c r="D123" t="str">
+        <v/>
+      </c>
+      <c r="E123" t="str">
+        <v>Is Revenue = Yes and Balance &gt;= 0</v>
+      </c>
+      <c r="F123" t="str">
+        <v/>
+      </c>
+      <c r="G123" t="str">
+        <v>H1 = Income</v>
+      </c>
+      <c r="H123" t="str">
+        <v/>
+      </c>
+      <c r="I123" t="str">
+        <v/>
+      </c>
+      <c r="J123" t="str">
+        <v>Revenue accounts</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="str">
+        <v>H1 Logic</v>
+      </c>
+      <c r="C124" t="str">
+        <v>H1 Logic</v>
+      </c>
+      <c r="D124" t="str">
+        <v/>
+      </c>
+      <c r="E124" t="str">
+        <v>Is Revenue = No and Balance &lt; 0</v>
+      </c>
+      <c r="F124" t="str">
+        <v/>
+      </c>
+      <c r="G124" t="str">
+        <v>H1 = Asset</v>
+      </c>
+      <c r="H124" t="str">
+        <v/>
+      </c>
+      <c r="I124" t="str">
+        <v/>
+      </c>
+      <c r="J124" t="str">
+        <v>Non-revenue accounts</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="str">
+        <v>H1 Logic</v>
+      </c>
+      <c r="C125" t="str">
+        <v>H1 Logic</v>
+      </c>
+      <c r="D125" t="str">
+        <v/>
+      </c>
+      <c r="E125" t="str">
+        <v>Is Revenue = No and Balance &gt;= 0</v>
+      </c>
+      <c r="F125" t="str">
+        <v/>
+      </c>
+      <c r="G125" t="str">
+        <v>H1 = Liability</v>
+      </c>
+      <c r="H125" t="str">
+        <v/>
+      </c>
+      <c r="I125" t="str">
+        <v/>
+      </c>
+      <c r="J125" t="str">
+        <v>Non-revenue accounts</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="str">
+        <v>H1 Logic</v>
+      </c>
+      <c r="C126" t="str">
+        <v>H1 Logic</v>
+      </c>
+      <c r="D126" t="str">
+        <v/>
+      </c>
+      <c r="E126" t="str">
         <v>If Closing Balance == 0 use Opening Balance</v>
       </c>
-      <c r="F85" t="str">
+      <c r="F126" t="str">
         <v/>
       </c>
-      <c r="G85" t="str">
+      <c r="G126" t="str">
         <v>Balance used for H1 sign</v>
       </c>
-      <c r="H85" t="str">
+      <c r="H126" t="str">
         <v/>
       </c>
-      <c r="I85" t="str">
+      <c r="I126" t="str">
         <v/>
       </c>
-      <c r="J85" t="str">
+      <c r="J126" t="str">
         <v>Balance selection</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J85"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J126"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/classification_logics.xlsx
+++ b/classification_logics.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J126"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3778,7 +3778,7 @@
         <v>Bank Accounts</v>
       </c>
       <c r="E106" t="str">
-        <v>current | ca</v>
+        <v>current | ca | bank</v>
       </c>
       <c r="F106" t="str">
         <v>Any</v>
@@ -3836,28 +3836,28 @@
         <v>Auto</v>
       </c>
       <c r="C108" t="str">
-        <v>Capital Account - Reserves and Surplus</v>
+        <v>Trade Receivables</v>
       </c>
       <c r="D108" t="str">
-        <v>Capital Account + Reserves and Surplus</v>
+        <v>Sundry Debtors | Trade Receivables | Accounts Receivable | Customer/Debtor group</v>
       </c>
       <c r="E108" t="str">
-        <v>capital reserve</v>
+        <v>sundry debtor | sundry debtors | trade receivable | trade receivables | accounts receivable | account receivable | debtors | customer receivable | customer balance | outstanding receivable | sales receivable | invoice receivable | fees receivable | service receivable | consultancy receivable | professional fees receivable | amc receivable | maintenance receivable | subscription receivable | project billing receivable | flat buyer receivable | flat buyers balance | booking receivable | installment receivable | possession receivable | rent receivable | lease rental receivable | maintenance charges receivable | export receivable | domestic receivable | dealer receivable | distributor receivable | license fee receivable | software service receivable | development charges receivable | freight receivable | transport charges receivable | logistics receivable | patient receivable | hospital charges receivable | tuition fees receivable | student fees receivable</v>
       </c>
       <c r="F108" t="str">
         <v>Any</v>
       </c>
       <c r="G108" t="str">
-        <v>Liability</v>
+        <v>Asset</v>
       </c>
       <c r="H108" t="str">
-        <v>Reserves and Surplus</v>
+        <v>Trade Receivables</v>
       </c>
       <c r="I108" t="str">
-        <v>Capital Reserve</v>
+        <v>Unsecured, considered good</v>
       </c>
       <c r="J108" t="str">
-        <v>Overrides H1 to Liability</v>
+        <v>Exclude: advance | prepaid | loan | deposit | security deposit | staff advance</v>
       </c>
     </row>
     <row r="109">
@@ -3874,7 +3874,7 @@
         <v>Capital Account + Reserves and Surplus</v>
       </c>
       <c r="E109" t="str">
-        <v>securities premium</v>
+        <v>capital reserve</v>
       </c>
       <c r="F109" t="str">
         <v>Any</v>
@@ -3886,7 +3886,7 @@
         <v>Reserves and Surplus</v>
       </c>
       <c r="I109" t="str">
-        <v>Securities Premium</v>
+        <v>Capital Reserve</v>
       </c>
       <c r="J109" t="str">
         <v>Overrides H1 to Liability</v>
@@ -3906,7 +3906,7 @@
         <v>Capital Account + Reserves and Surplus</v>
       </c>
       <c r="E110" t="str">
-        <v>capital redemption</v>
+        <v>securities premium | premium</v>
       </c>
       <c r="F110" t="str">
         <v>Any</v>
@@ -3918,7 +3918,7 @@
         <v>Reserves and Surplus</v>
       </c>
       <c r="I110" t="str">
-        <v>Capital Redemption Reserve</v>
+        <v>Securities Premium</v>
       </c>
       <c r="J110" t="str">
         <v>Overrides H1 to Liability</v>
@@ -3938,7 +3938,7 @@
         <v>Capital Account + Reserves and Surplus</v>
       </c>
       <c r="E111" t="str">
-        <v>debenture</v>
+        <v>capital redemption</v>
       </c>
       <c r="F111" t="str">
         <v>Any</v>
@@ -3950,7 +3950,7 @@
         <v>Reserves and Surplus</v>
       </c>
       <c r="I111" t="str">
-        <v>Debenture Redemption Reserve</v>
+        <v>Capital Redemption Reserve</v>
       </c>
       <c r="J111" t="str">
         <v>Overrides H1 to Liability</v>
@@ -3970,7 +3970,7 @@
         <v>Capital Account + Reserves and Surplus</v>
       </c>
       <c r="E112" t="str">
-        <v>revaluation</v>
+        <v>debenture</v>
       </c>
       <c r="F112" t="str">
         <v>Any</v>
@@ -3982,7 +3982,7 @@
         <v>Reserves and Surplus</v>
       </c>
       <c r="I112" t="str">
-        <v>Revaluation Reserve</v>
+        <v>Debenture Redemption Reserve</v>
       </c>
       <c r="J112" t="str">
         <v>Overrides H1 to Liability</v>
@@ -4002,7 +4002,7 @@
         <v>Capital Account + Reserves and Surplus</v>
       </c>
       <c r="E113" t="str">
-        <v>share option</v>
+        <v>revaluation</v>
       </c>
       <c r="F113" t="str">
         <v>Any</v>
@@ -4014,7 +4014,7 @@
         <v>Reserves and Surplus</v>
       </c>
       <c r="I113" t="str">
-        <v>Share Option Outstanding Account</v>
+        <v>Revaluation Reserve</v>
       </c>
       <c r="J113" t="str">
         <v>Overrides H1 to Liability</v>
@@ -4034,7 +4034,7 @@
         <v>Capital Account + Reserves and Surplus</v>
       </c>
       <c r="E114" t="str">
-        <v>general</v>
+        <v>share option</v>
       </c>
       <c r="F114" t="str">
         <v>Any</v>
@@ -4046,7 +4046,7 @@
         <v>Reserves and Surplus</v>
       </c>
       <c r="I114" t="str">
-        <v>General Reserve</v>
+        <v>Share Option Outstanding Account</v>
       </c>
       <c r="J114" t="str">
         <v>Overrides H1 to Liability</v>
@@ -4066,7 +4066,7 @@
         <v>Capital Account + Reserves and Surplus</v>
       </c>
       <c r="E115" t="str">
-        <v>(none matched)</v>
+        <v>general</v>
       </c>
       <c r="F115" t="str">
         <v>Any</v>
@@ -4078,10 +4078,10 @@
         <v>Reserves and Surplus</v>
       </c>
       <c r="I115" t="str">
-        <v>Surplus in Statement of Profit and Loss</v>
+        <v>General Reserve</v>
       </c>
       <c r="J115" t="str">
-        <v>Default</v>
+        <v>Overrides H1 to Liability</v>
       </c>
     </row>
     <row r="116">
@@ -4092,28 +4092,28 @@
         <v>Auto</v>
       </c>
       <c r="C116" t="str">
-        <v>Capital Account</v>
+        <v>Capital Account - Reserves and Surplus</v>
       </c>
       <c r="D116" t="str">
-        <v>Capital Account (Company only)</v>
+        <v>Capital Account + Reserves and Surplus</v>
       </c>
       <c r="E116" t="str">
-        <v>share capital</v>
+        <v>(none matched)</v>
       </c>
       <c r="F116" t="str">
-        <v>Company</v>
+        <v>Any</v>
       </c>
       <c r="G116" t="str">
         <v>Liability</v>
       </c>
       <c r="H116" t="str">
-        <v>Share Capital</v>
+        <v>Reserves and Surplus</v>
       </c>
       <c r="I116" t="str">
-        <v>Equity - fully paid up</v>
+        <v>Surplus in Statement of Profit and Loss</v>
       </c>
       <c r="J116" t="str">
-        <v>Company entities only</v>
+        <v>Default</v>
       </c>
     </row>
     <row r="117">
@@ -4130,7 +4130,7 @@
         <v>Capital Account (Company only)</v>
       </c>
       <c r="E117" t="str">
-        <v>preference</v>
+        <v>share capital</v>
       </c>
       <c r="F117" t="str">
         <v>Company</v>
@@ -4142,7 +4142,7 @@
         <v>Share Capital</v>
       </c>
       <c r="I117" t="str">
-        <v>Preference - fully paid up</v>
+        <v>Equity - fully paid up</v>
       </c>
       <c r="J117" t="str">
         <v>Company entities only</v>
@@ -4159,25 +4159,25 @@
         <v>Capital Account</v>
       </c>
       <c r="D118" t="str">
-        <v>Capital Account (Partnership/LLP only)</v>
+        <v>Capital Account (Company only)</v>
       </c>
       <c r="E118" t="str">
-        <v>(all)</v>
+        <v>preference</v>
       </c>
       <c r="F118" t="str">
-        <v>Partnership/LLP</v>
+        <v>Company</v>
       </c>
       <c r="G118" t="str">
         <v>Liability</v>
       </c>
       <c r="H118" t="str">
-        <v>Partners' Capital Account</v>
+        <v>Share Capital</v>
       </c>
       <c r="I118" t="str">
-        <v>Partners' Capital Account</v>
+        <v>Preference - fully paid up</v>
       </c>
       <c r="J118" t="str">
-        <v>Partnership/LLP entities only</v>
+        <v>Company entities only</v>
       </c>
     </row>
     <row r="119">
@@ -4191,25 +4191,25 @@
         <v>Capital Account</v>
       </c>
       <c r="D119" t="str">
-        <v>Capital Account (Other entities)</v>
+        <v>Capital Account (Partnership/LLP only)</v>
       </c>
       <c r="E119" t="str">
         <v>(all)</v>
       </c>
       <c r="F119" t="str">
-        <v>Other</v>
+        <v>Partnership/LLP</v>
       </c>
       <c r="G119" t="str">
         <v>Liability</v>
       </c>
       <c r="H119" t="str">
-        <v>Owners' Capital Account</v>
+        <v>Partners' Capital Account</v>
       </c>
       <c r="I119" t="str">
-        <v>Owners' Capital Account</v>
+        <v>Partners' Capital Account</v>
       </c>
       <c r="J119" t="str">
-        <v>Individual/HUF/Sole Proprietorship</v>
+        <v>Partnership/LLP entities only</v>
       </c>
     </row>
     <row r="120">
@@ -4220,28 +4220,28 @@
         <v>Auto</v>
       </c>
       <c r="C120" t="str">
-        <v>Profit &amp; Loss A/c Override</v>
+        <v>Capital Account</v>
       </c>
       <c r="D120" t="str">
-        <v>Parent/Group = Primary</v>
+        <v>Capital Account (Other entities)</v>
       </c>
       <c r="E120" t="str">
-        <v>profit | loss | profit &amp; loss</v>
+        <v>(all)</v>
       </c>
       <c r="F120" t="str">
-        <v>Any</v>
+        <v>Other</v>
       </c>
       <c r="G120" t="str">
         <v>Liability</v>
       </c>
       <c r="H120" t="str">
-        <v>Reserves and Surplus</v>
+        <v>Owners' Capital Account</v>
       </c>
       <c r="I120" t="str">
-        <v>Surplus in Statement of Profit and Loss</v>
+        <v>Owners' Capital Account</v>
       </c>
       <c r="J120" t="str">
-        <v>Overrides H1 to Liability</v>
+        <v>Individual/HUF/Sole Proprietorship</v>
       </c>
     </row>
     <row r="121">
@@ -4249,31 +4249,31 @@
         <v>120</v>
       </c>
       <c r="B121" t="str">
-        <v>H1 Logic</v>
+        <v>Auto</v>
       </c>
       <c r="C121" t="str">
-        <v>H1 Logic</v>
+        <v>Profit &amp; Loss A/c Override</v>
       </c>
       <c r="D121" t="str">
-        <v/>
+        <v>Parent/Group = Primary</v>
       </c>
       <c r="E121" t="str">
-        <v>Primary Group contains 'Sales Accounts'</v>
+        <v>profit | loss | profit &amp; loss</v>
       </c>
       <c r="F121" t="str">
-        <v/>
+        <v>Any</v>
       </c>
       <c r="G121" t="str">
-        <v>H1 = Income</v>
+        <v>Liability</v>
       </c>
       <c r="H121" t="str">
-        <v/>
+        <v>Reserves and Surplus</v>
       </c>
       <c r="I121" t="str">
-        <v/>
+        <v>Surplus in Statement of Profit and Loss</v>
       </c>
       <c r="J121" t="str">
-        <v>Sales Accounts always Income</v>
+        <v>Overrides H1 to Liability</v>
       </c>
     </row>
     <row r="122">
@@ -4290,13 +4290,13 @@
         <v/>
       </c>
       <c r="E122" t="str">
-        <v>Is Revenue = Yes and Balance &lt; 0</v>
+        <v>Primary Group contains 'Sales Accounts'</v>
       </c>
       <c r="F122" t="str">
         <v/>
       </c>
       <c r="G122" t="str">
-        <v>H1 = Expense</v>
+        <v>H1 = Income</v>
       </c>
       <c r="H122" t="str">
         <v/>
@@ -4305,7 +4305,7 @@
         <v/>
       </c>
       <c r="J122" t="str">
-        <v>Revenue accounts</v>
+        <v>Sales Accounts always Income</v>
       </c>
     </row>
     <row r="123">
@@ -4322,13 +4322,13 @@
         <v/>
       </c>
       <c r="E123" t="str">
-        <v>Is Revenue = Yes and Balance &gt;= 0</v>
+        <v>Is Revenue = Yes and Balance &lt; 0</v>
       </c>
       <c r="F123" t="str">
         <v/>
       </c>
       <c r="G123" t="str">
-        <v>H1 = Income</v>
+        <v>H1 = Expense</v>
       </c>
       <c r="H123" t="str">
         <v/>
@@ -4354,13 +4354,13 @@
         <v/>
       </c>
       <c r="E124" t="str">
-        <v>Is Revenue = No and Balance &lt; 0</v>
+        <v>Is Revenue = Yes and Balance &gt;= 0</v>
       </c>
       <c r="F124" t="str">
         <v/>
       </c>
       <c r="G124" t="str">
-        <v>H1 = Asset</v>
+        <v>H1 = Income</v>
       </c>
       <c r="H124" t="str">
         <v/>
@@ -4369,7 +4369,7 @@
         <v/>
       </c>
       <c r="J124" t="str">
-        <v>Non-revenue accounts</v>
+        <v>Revenue accounts</v>
       </c>
     </row>
     <row r="125">
@@ -4386,13 +4386,13 @@
         <v/>
       </c>
       <c r="E125" t="str">
-        <v>Is Revenue = No and Balance &gt;= 0</v>
+        <v>Is Revenue = No and Balance &lt; 0</v>
       </c>
       <c r="F125" t="str">
         <v/>
       </c>
       <c r="G125" t="str">
-        <v>H1 = Liability</v>
+        <v>H1 = Asset</v>
       </c>
       <c r="H125" t="str">
         <v/>
@@ -4418,13 +4418,13 @@
         <v/>
       </c>
       <c r="E126" t="str">
-        <v>If Closing Balance == 0 use Opening Balance</v>
+        <v>Is Revenue = No and Balance &gt;= 0</v>
       </c>
       <c r="F126" t="str">
         <v/>
       </c>
       <c r="G126" t="str">
-        <v>Balance used for H1 sign</v>
+        <v>H1 = Liability</v>
       </c>
       <c r="H126" t="str">
         <v/>
@@ -4433,12 +4433,44 @@
         <v/>
       </c>
       <c r="J126" t="str">
+        <v>Non-revenue accounts</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="str">
+        <v>H1 Logic</v>
+      </c>
+      <c r="C127" t="str">
+        <v>H1 Logic</v>
+      </c>
+      <c r="D127" t="str">
+        <v/>
+      </c>
+      <c r="E127" t="str">
+        <v>If Closing Balance == 0 use Opening Balance</v>
+      </c>
+      <c r="F127" t="str">
+        <v/>
+      </c>
+      <c r="G127" t="str">
+        <v>Balance used for H1 sign</v>
+      </c>
+      <c r="H127" t="str">
+        <v/>
+      </c>
+      <c r="I127" t="str">
+        <v/>
+      </c>
+      <c r="J127" t="str">
         <v>Balance selection</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J126"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J127"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/classification_logics.xlsx
+++ b/classification_logics.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J127"/>
+  <dimension ref="A1:J147"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3868,13 +3868,13 @@
         <v>Auto</v>
       </c>
       <c r="C109" t="str">
-        <v>Capital Account - Reserves and Surplus</v>
+        <v>Sundry Debtors - Credit Balance</v>
       </c>
       <c r="D109" t="str">
-        <v>Capital Account + Reserves and Surplus</v>
+        <v>Sundry Debtors</v>
       </c>
       <c r="E109" t="str">
-        <v>capital reserve</v>
+        <v>(H1 Liability)</v>
       </c>
       <c r="F109" t="str">
         <v>Any</v>
@@ -3883,13 +3883,13 @@
         <v>Liability</v>
       </c>
       <c r="H109" t="str">
-        <v>Reserves and Surplus</v>
+        <v>Other Current Liabilities</v>
       </c>
       <c r="I109" t="str">
-        <v>Capital Reserve</v>
+        <v>Advance from Customers</v>
       </c>
       <c r="J109" t="str">
-        <v>Overrides H1 to Liability</v>
+        <v>Applies when H1 is Liability</v>
       </c>
     </row>
     <row r="110">
@@ -3900,28 +3900,28 @@
         <v>Auto</v>
       </c>
       <c r="C110" t="str">
-        <v>Capital Account - Reserves and Surplus</v>
+        <v>Employee Loans</v>
       </c>
       <c r="D110" t="str">
-        <v>Capital Account + Reserves and Surplus</v>
+        <v>Asset</v>
       </c>
       <c r="E110" t="str">
-        <v>securities premium | premium</v>
+        <v>loan to staff | loan to employee | employee loan | staff loan | salary loan | personal loan to employee | employee housing loan | employee vehicle loan</v>
       </c>
       <c r="F110" t="str">
         <v>Any</v>
       </c>
       <c r="G110" t="str">
-        <v>Liability</v>
+        <v>Asset</v>
       </c>
       <c r="H110" t="str">
-        <v>Reserves and Surplus</v>
+        <v>Short-term Loans and Advances</v>
       </c>
       <c r="I110" t="str">
-        <v>Securities Premium</v>
+        <v>Unsecured - Loans to employees</v>
       </c>
       <c r="J110" t="str">
-        <v>Overrides H1 to Liability</v>
+        <v>Priority over advances</v>
       </c>
     </row>
     <row r="111">
@@ -3932,28 +3932,28 @@
         <v>Auto</v>
       </c>
       <c r="C111" t="str">
-        <v>Capital Account - Reserves and Surplus</v>
+        <v>Employee Advances</v>
       </c>
       <c r="D111" t="str">
-        <v>Capital Account + Reserves and Surplus</v>
+        <v>Asset</v>
       </c>
       <c r="E111" t="str">
-        <v>capital redemption</v>
+        <v>staff advance | employee advance | advance to staff | advance to employee | salary advance | wage advance | payroll advance | employee receivable | staff receivable | tour advance | travel advance | ta advance | medical advance</v>
       </c>
       <c r="F111" t="str">
         <v>Any</v>
       </c>
       <c r="G111" t="str">
-        <v>Liability</v>
+        <v>Asset</v>
       </c>
       <c r="H111" t="str">
-        <v>Reserves and Surplus</v>
+        <v>Short-term Loans and Advances</v>
       </c>
       <c r="I111" t="str">
-        <v>Capital Redemption Reserve</v>
+        <v>Unsecured - Advances to employees</v>
       </c>
       <c r="J111" t="str">
-        <v>Overrides H1 to Liability</v>
+        <v>Applies if no loan match</v>
       </c>
     </row>
     <row r="112">
@@ -3964,28 +3964,28 @@
         <v>Auto</v>
       </c>
       <c r="C112" t="str">
-        <v>Capital Account - Reserves and Surplus</v>
+        <v>GST Input Credit</v>
       </c>
       <c r="D112" t="str">
-        <v>Capital Account + Reserves and Surplus</v>
+        <v>Asset</v>
       </c>
       <c r="E112" t="str">
-        <v>debenture</v>
+        <v>gst input | input gst | input tax credit | itc | cgst input | sgst input | igst input | ugst input | gst credit | eligible itc | input credit | gst receivable | gst refundable</v>
       </c>
       <c r="F112" t="str">
         <v>Any</v>
       </c>
       <c r="G112" t="str">
-        <v>Liability</v>
+        <v>Asset</v>
       </c>
       <c r="H112" t="str">
-        <v>Reserves and Surplus</v>
+        <v>Short-term Loans and Advances</v>
       </c>
       <c r="I112" t="str">
-        <v>Debenture Redemption Reserve</v>
+        <v>Unsecured - GST Input Credit</v>
       </c>
       <c r="J112" t="str">
-        <v>Overrides H1 to Liability</v>
+        <v>Exclude: gst payable | output gst | output tax | gst liability</v>
       </c>
     </row>
     <row r="113">
@@ -3996,28 +3996,28 @@
         <v>Auto</v>
       </c>
       <c r="C113" t="str">
-        <v>Capital Account - Reserves and Surplus</v>
+        <v>Advance Tax and TDS</v>
       </c>
       <c r="D113" t="str">
-        <v>Capital Account + Reserves and Surplus</v>
+        <v>Asset</v>
       </c>
       <c r="E113" t="str">
-        <v>revaluation</v>
+        <v>advance tax | income tax advance | advance income tax | tds receivable | tds refund | tds refundable | tds recoverable | tax deducted at source | tds credit | tcs receivable | tcs refund | tcs refundable | tcs recoverable | tax collected at source | tcs credit</v>
       </c>
       <c r="F113" t="str">
         <v>Any</v>
       </c>
       <c r="G113" t="str">
-        <v>Liability</v>
+        <v>Asset</v>
       </c>
       <c r="H113" t="str">
-        <v>Reserves and Surplus</v>
+        <v>Short-term Loans and Advances</v>
       </c>
       <c r="I113" t="str">
-        <v>Revaluation Reserve</v>
+        <v>Unsecured - Advance Tax and TDS</v>
       </c>
       <c r="J113" t="str">
-        <v>Overrides H1 to Liability</v>
+        <v>Exclude GST TDS/TCS and tds/tcs payable</v>
       </c>
     </row>
     <row r="114">
@@ -4028,28 +4028,28 @@
         <v>Auto</v>
       </c>
       <c r="C114" t="str">
-        <v>Capital Account - Reserves and Surplus</v>
+        <v>Government Authorities Receivable</v>
       </c>
       <c r="D114" t="str">
-        <v>Capital Account + Reserves and Surplus</v>
+        <v>Asset</v>
       </c>
       <c r="E114" t="str">
-        <v>share option</v>
+        <v>government receivable | government authority receivable | balance with government | balances with government authorities | refund receivable from government | government refund | tax refund receivable | income tax refund | vat refund | sales tax refund | excise refund | customs refund | duty refund | cess refund | surcharge refund | municipal tax refund | local body refund</v>
       </c>
       <c r="F114" t="str">
         <v>Any</v>
       </c>
       <c r="G114" t="str">
-        <v>Liability</v>
+        <v>Asset</v>
       </c>
       <c r="H114" t="str">
-        <v>Reserves and Surplus</v>
+        <v>Short-term Loans and Advances</v>
       </c>
       <c r="I114" t="str">
-        <v>Share Option Outstanding Account</v>
+        <v>Unsecured - Balances with government authorities</v>
       </c>
       <c r="J114" t="str">
-        <v>Overrides H1 to Liability</v>
+        <v>Exclude gst input/itc, tds/tcs receivable, advance tax, security deposit</v>
       </c>
     </row>
     <row r="115">
@@ -4060,28 +4060,28 @@
         <v>Auto</v>
       </c>
       <c r="C115" t="str">
-        <v>Capital Account - Reserves and Surplus</v>
+        <v>Security Deposits</v>
       </c>
       <c r="D115" t="str">
-        <v>Capital Account + Reserves and Surplus</v>
+        <v>Asset</v>
       </c>
       <c r="E115" t="str">
-        <v>general</v>
+        <v>security deposit | security deposits | refundable security deposit | caution deposit | caution money | deposit held as security</v>
       </c>
       <c r="F115" t="str">
         <v>Any</v>
       </c>
       <c r="G115" t="str">
-        <v>Liability</v>
+        <v>Asset</v>
       </c>
       <c r="H115" t="str">
-        <v>Reserves and Surplus</v>
+        <v>Other Non-current Assets</v>
       </c>
       <c r="I115" t="str">
-        <v>General Reserve</v>
+        <v>Security Deposits</v>
       </c>
       <c r="J115" t="str">
-        <v>Overrides H1 to Liability</v>
+        <v>Overrides trade deposit/loans/prepaid/capital advances</v>
       </c>
     </row>
     <row r="116">
@@ -4092,28 +4092,28 @@
         <v>Auto</v>
       </c>
       <c r="C116" t="str">
-        <v>Capital Account - Reserves and Surplus</v>
+        <v>Prepaid Expenses</v>
       </c>
       <c r="D116" t="str">
-        <v>Capital Account + Reserves and Surplus</v>
+        <v>Asset</v>
       </c>
       <c r="E116" t="str">
-        <v>(none matched)</v>
+        <v>prepaid expense | prepaid expenses | prepaid | advance expense | expense paid in advance | rent prepaid | insurance prepaid | maintenance prepaid | subscription prepaid | annual charges prepaid | service charges prepaid</v>
       </c>
       <c r="F116" t="str">
         <v>Any</v>
       </c>
       <c r="G116" t="str">
-        <v>Liability</v>
+        <v>Asset</v>
       </c>
       <c r="H116" t="str">
-        <v>Reserves and Surplus</v>
+        <v>Short-term Loans and Advances</v>
       </c>
       <c r="I116" t="str">
-        <v>Surplus in Statement of Profit and Loss</v>
+        <v>Unsecured - Prepaid Expenses</v>
       </c>
       <c r="J116" t="str">
-        <v>Default</v>
+        <v>Exclude staff/employee advance, loan, deposit, supplier advance</v>
       </c>
     </row>
     <row r="117">
@@ -4124,28 +4124,28 @@
         <v>Auto</v>
       </c>
       <c r="C117" t="str">
-        <v>Capital Account</v>
+        <v>Trade Deposits</v>
       </c>
       <c r="D117" t="str">
-        <v>Capital Account (Company only)</v>
+        <v>Asset</v>
       </c>
       <c r="E117" t="str">
-        <v>share capital</v>
+        <v>trade deposit | trade deposits | deposit with supplier | deposit with vendor | supplier deposit | vendor deposit | security deposit | sd | deposit for goods | deposit for services | earnest money deposit | emd | performance deposit</v>
       </c>
       <c r="F117" t="str">
-        <v>Company</v>
+        <v>Any</v>
       </c>
       <c r="G117" t="str">
-        <v>Liability</v>
+        <v>Asset</v>
       </c>
       <c r="H117" t="str">
-        <v>Share Capital</v>
+        <v>Long-term Loans and Advances</v>
       </c>
       <c r="I117" t="str">
-        <v>Equity - fully paid up</v>
+        <v>Unsecured - Trade Deposits</v>
       </c>
       <c r="J117" t="str">
-        <v>Company entities only</v>
+        <v>Exclude staff/employee advance, loan, prepaid, expense, rent/lease/electricity/water deposit</v>
       </c>
     </row>
     <row r="118">
@@ -4156,28 +4156,28 @@
         <v>Auto</v>
       </c>
       <c r="C118" t="str">
-        <v>Capital Account</v>
+        <v>Capital Advances</v>
       </c>
       <c r="D118" t="str">
-        <v>Capital Account (Company only)</v>
+        <v>Asset</v>
       </c>
       <c r="E118" t="str">
-        <v>preference</v>
+        <v>capital advance | capital advances | advance for capital asset | advance for fixed asset | advance for machinery | machinery advance | advance for equipment | equipment advance | advance for plant | plant advance | advance for building | building advance | advance for construction | construction advance | advance for property | property advance</v>
       </c>
       <c r="F118" t="str">
-        <v>Company</v>
+        <v>Any</v>
       </c>
       <c r="G118" t="str">
-        <v>Liability</v>
+        <v>Asset</v>
       </c>
       <c r="H118" t="str">
-        <v>Share Capital</v>
+        <v>Long-term Loans and Advances</v>
       </c>
       <c r="I118" t="str">
-        <v>Preference - fully paid up</v>
+        <v>Unsecured - Capital Advances</v>
       </c>
       <c r="J118" t="str">
-        <v>Company entities only</v>
+        <v>Exclude staff/employee advance, trade deposit, prepaid expense, loan to staff/employee</v>
       </c>
     </row>
     <row r="119">
@@ -4188,28 +4188,28 @@
         <v>Auto</v>
       </c>
       <c r="C119" t="str">
-        <v>Capital Account</v>
+        <v>Trade Payables</v>
       </c>
       <c r="D119" t="str">
-        <v>Capital Account (Partnership/LLP only)</v>
+        <v>Sundry Creditors | Trade Payables | Accounts Payable | Creditors | Supplier/Vendor group</v>
       </c>
       <c r="E119" t="str">
-        <v>(all)</v>
+        <v>sundry creditor | sundry creditors | trade payable | trade payables | accounts payable | account payable | creditors | supplier payable | vendor payable | supplier balance | vendor balance | payable | outstanding payable | purchase payable | invoice payable | contractor payable | professional fees payable | service payable | consultancy payable | amc payable | rent payable | lease payable | freight payable | transport payable | logistics payable | statutory payable | retention payable</v>
       </c>
       <c r="F119" t="str">
-        <v>Partnership/LLP</v>
+        <v>Any</v>
       </c>
       <c r="G119" t="str">
         <v>Liability</v>
       </c>
       <c r="H119" t="str">
-        <v>Partners' Capital Account</v>
+        <v>Trade Payables</v>
       </c>
       <c r="I119" t="str">
-        <v>Partners' Capital Account</v>
+        <v>Other than MSME</v>
       </c>
       <c r="J119" t="str">
-        <v>Partnership/LLP entities only</v>
+        <v>Exclude loan/borrowing/bank/overdraft/interest/tax/tds/gst/pf/esi/salary/wages</v>
       </c>
     </row>
     <row r="120">
@@ -4220,28 +4220,28 @@
         <v>Auto</v>
       </c>
       <c r="C120" t="str">
-        <v>Capital Account</v>
+        <v>TDS/TCS Payable</v>
       </c>
       <c r="D120" t="str">
-        <v>Capital Account (Other entities)</v>
+        <v>Liability</v>
       </c>
       <c r="E120" t="str">
-        <v>(all)</v>
+        <v>tds payable | tds liability | tds deducted | tax deducted at source payable | withholding tax payable | tds sec | tds section | u/s | under section | 194c | 194j | 194h | 194i | 194a | 194q | 194r | 195 | 192 | 193 | 194 | 194ia | 194ib | 194ic | tcs payable | tcs liability | tax collected at source payable | tcs sec | tcs section | 206c</v>
       </c>
       <c r="F120" t="str">
-        <v>Other</v>
+        <v>Any</v>
       </c>
       <c r="G120" t="str">
         <v>Liability</v>
       </c>
       <c r="H120" t="str">
-        <v>Owners' Capital Account</v>
+        <v>Other Current Liabilities</v>
       </c>
       <c r="I120" t="str">
-        <v>Owners' Capital Account</v>
+        <v>TDS Payable</v>
       </c>
       <c r="J120" t="str">
-        <v>Individual/HUF/Sole Proprietorship</v>
+        <v>Exclude GST TDS/TCS and tds/tcs advance/paid</v>
       </c>
     </row>
     <row r="121">
@@ -4252,13 +4252,13 @@
         <v>Auto</v>
       </c>
       <c r="C121" t="str">
-        <v>Profit &amp; Loss A/c Override</v>
+        <v>GST Payable</v>
       </c>
       <c r="D121" t="str">
-        <v>Parent/Group = Primary</v>
+        <v>Liability</v>
       </c>
       <c r="E121" t="str">
-        <v>profit | loss | profit &amp; loss</v>
+        <v>gst payable | gst liability | output gst | output tax | cgst payable | sgst payable | igst payable | ugst payable | gst output | tax payable under gst</v>
       </c>
       <c r="F121" t="str">
         <v>Any</v>
@@ -4267,13 +4267,13 @@
         <v>Liability</v>
       </c>
       <c r="H121" t="str">
-        <v>Reserves and Surplus</v>
+        <v>Other Current Liabilities</v>
       </c>
       <c r="I121" t="str">
-        <v>Surplus in Statement of Profit and Loss</v>
+        <v>GST Payable</v>
       </c>
       <c r="J121" t="str">
-        <v>Overrides H1 to Liability</v>
+        <v>Exclude gst input/itc/receivable</v>
       </c>
     </row>
     <row r="122">
@@ -4281,31 +4281,31 @@
         <v>121</v>
       </c>
       <c r="B122" t="str">
-        <v>H1 Logic</v>
+        <v>Auto</v>
       </c>
       <c r="C122" t="str">
-        <v>H1 Logic</v>
+        <v>Employee Dues Payable</v>
       </c>
       <c r="D122" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="E122" t="str">
+        <v>salary payable | salaries payable | wages payable | wage payable | employee dues | dues to employees | bonus payable | incentive payable | commission payable | leave encashment payable | arrears payable | payroll payable</v>
+      </c>
+      <c r="F122" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G122" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="H122" t="str">
+        <v>Other Current Liabilities</v>
+      </c>
+      <c r="I122" t="str">
+        <v>Employee Dues Payable</v>
+      </c>
+      <c r="J122" t="str">
         <v/>
-      </c>
-      <c r="E122" t="str">
-        <v>Primary Group contains 'Sales Accounts'</v>
-      </c>
-      <c r="F122" t="str">
-        <v/>
-      </c>
-      <c r="G122" t="str">
-        <v>H1 = Income</v>
-      </c>
-      <c r="H122" t="str">
-        <v/>
-      </c>
-      <c r="I122" t="str">
-        <v/>
-      </c>
-      <c r="J122" t="str">
-        <v>Sales Accounts always Income</v>
       </c>
     </row>
     <row r="123">
@@ -4313,31 +4313,31 @@
         <v>122</v>
       </c>
       <c r="B123" t="str">
-        <v>H1 Logic</v>
+        <v>Auto</v>
       </c>
       <c r="C123" t="str">
-        <v>H1 Logic</v>
+        <v>PF Dues Payable</v>
       </c>
       <c r="D123" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="E123" t="str">
+        <v>pf payable | pf fund payable | employees pf payable | epf payable | pf dues | pf dues payable | employer pf payable | employee pf payable | pf contribution payable</v>
+      </c>
+      <c r="F123" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G123" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="H123" t="str">
+        <v>Other Current Liabilities</v>
+      </c>
+      <c r="I123" t="str">
+        <v>PF Dues Payable</v>
+      </c>
+      <c r="J123" t="str">
         <v/>
-      </c>
-      <c r="E123" t="str">
-        <v>Is Revenue = Yes and Balance &lt; 0</v>
-      </c>
-      <c r="F123" t="str">
-        <v/>
-      </c>
-      <c r="G123" t="str">
-        <v>H1 = Expense</v>
-      </c>
-      <c r="H123" t="str">
-        <v/>
-      </c>
-      <c r="I123" t="str">
-        <v/>
-      </c>
-      <c r="J123" t="str">
-        <v>Revenue accounts</v>
       </c>
     </row>
     <row r="124">
@@ -4345,31 +4345,31 @@
         <v>123</v>
       </c>
       <c r="B124" t="str">
-        <v>H1 Logic</v>
+        <v>Auto</v>
       </c>
       <c r="C124" t="str">
-        <v>H1 Logic</v>
+        <v>ESI Dues Payable</v>
       </c>
       <c r="D124" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="E124" t="str">
+        <v>esi payable | esi dues | esi contribution payable | employer esi payable | employee esi payable | employees esi payable | employee state insurance payable | employee state insurance dues | employer state insurance payable</v>
+      </c>
+      <c r="F124" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G124" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="H124" t="str">
+        <v>Other Current Liabilities</v>
+      </c>
+      <c r="I124" t="str">
+        <v>ESI Dues Payable</v>
+      </c>
+      <c r="J124" t="str">
         <v/>
-      </c>
-      <c r="E124" t="str">
-        <v>Is Revenue = Yes and Balance &gt;= 0</v>
-      </c>
-      <c r="F124" t="str">
-        <v/>
-      </c>
-      <c r="G124" t="str">
-        <v>H1 = Income</v>
-      </c>
-      <c r="H124" t="str">
-        <v/>
-      </c>
-      <c r="I124" t="str">
-        <v/>
-      </c>
-      <c r="J124" t="str">
-        <v>Revenue accounts</v>
       </c>
     </row>
     <row r="125">
@@ -4377,31 +4377,31 @@
         <v>124</v>
       </c>
       <c r="B125" t="str">
-        <v>H1 Logic</v>
+        <v>Auto</v>
       </c>
       <c r="C125" t="str">
-        <v>H1 Logic</v>
+        <v>LWF Dues Payable</v>
       </c>
       <c r="D125" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="E125" t="str">
+        <v>lwf payable | labour welfare fund payable | labour welfare fund dues | labor welfare fund payable | lwf contribution payable | employer lwf payable | employee lwf payable</v>
+      </c>
+      <c r="F125" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G125" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="H125" t="str">
+        <v>Other Current Liabilities</v>
+      </c>
+      <c r="I125" t="str">
+        <v>LWF Dues Payable</v>
+      </c>
+      <c r="J125" t="str">
         <v/>
-      </c>
-      <c r="E125" t="str">
-        <v>Is Revenue = No and Balance &lt; 0</v>
-      </c>
-      <c r="F125" t="str">
-        <v/>
-      </c>
-      <c r="G125" t="str">
-        <v>H1 = Asset</v>
-      </c>
-      <c r="H125" t="str">
-        <v/>
-      </c>
-      <c r="I125" t="str">
-        <v/>
-      </c>
-      <c r="J125" t="str">
-        <v>Non-revenue accounts</v>
       </c>
     </row>
     <row r="126">
@@ -4409,31 +4409,31 @@
         <v>125</v>
       </c>
       <c r="B126" t="str">
-        <v>H1 Logic</v>
+        <v>Auto</v>
       </c>
       <c r="C126" t="str">
-        <v>H1 Logic</v>
+        <v>Professional Tax Payable</v>
       </c>
       <c r="D126" t="str">
-        <v/>
+        <v>Liability</v>
       </c>
       <c r="E126" t="str">
-        <v>Is Revenue = No and Balance &gt;= 0</v>
+        <v>professional tax payable | profession tax payable | professional tax dues | profession tax dues | pt payable | p tax payable | p-tax payable | ptax payable | ptx payable | pro tax payable | prof tax payable | professional tax liability | pt liability | pt dues | p tax dues</v>
       </c>
       <c r="F126" t="str">
-        <v/>
+        <v>Any</v>
       </c>
       <c r="G126" t="str">
-        <v>H1 = Liability</v>
+        <v>Liability</v>
       </c>
       <c r="H126" t="str">
-        <v/>
+        <v>Other Current Liabilities</v>
       </c>
       <c r="I126" t="str">
-        <v/>
+        <v>Professional Tax Payable</v>
       </c>
       <c r="J126" t="str">
-        <v>Non-revenue accounts</v>
+        <v>Exclude professional tax advance/paid</v>
       </c>
     </row>
     <row r="127">
@@ -4441,36 +4441,676 @@
         <v>126</v>
       </c>
       <c r="B127" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C127" t="str">
+        <v>Audit Fees Payable</v>
+      </c>
+      <c r="D127" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="E127" t="str">
+        <v>audit fees payable | audit fee payable | audit charges payable | audit expenses payable | auditor fees payable | auditor fee payable | internal audit fees payable | tax audit fees payable | secretarial audit fees payable | cost audit fees payable | forensic audit fees payable | concurrent audit fees payable</v>
+      </c>
+      <c r="F127" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G127" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="H127" t="str">
+        <v>Other Current Liabilities</v>
+      </c>
+      <c r="I127" t="str">
+        <v>Audit Fees Payable</v>
+      </c>
+      <c r="J127" t="str">
+        <v>Exclude audit fees/expenses paid or advance to auditor</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C128" t="str">
+        <v>Service Tax Payable</v>
+      </c>
+      <c r="D128" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="E128" t="str">
+        <v>service tax payable | service tax liability | service tax dues | st payable | svc tax payable | srvc tax payable | tax on services payable</v>
+      </c>
+      <c r="F128" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G128" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="H128" t="str">
+        <v>Other Current Liabilities</v>
+      </c>
+      <c r="I128" t="str">
+        <v>Service Tax Payable</v>
+      </c>
+      <c r="J128" t="str">
+        <v>Exclude GST terms and service tax advance/paid</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C129" t="str">
+        <v>Capital Account - Reserves and Surplus</v>
+      </c>
+      <c r="D129" t="str">
+        <v>Capital Account + Reserves and Surplus</v>
+      </c>
+      <c r="E129" t="str">
+        <v>capital reserve</v>
+      </c>
+      <c r="F129" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G129" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="H129" t="str">
+        <v>Reserves and Surplus</v>
+      </c>
+      <c r="I129" t="str">
+        <v>Capital Reserve</v>
+      </c>
+      <c r="J129" t="str">
+        <v>Overrides H1 to Liability</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C130" t="str">
+        <v>Capital Account - Reserves and Surplus</v>
+      </c>
+      <c r="D130" t="str">
+        <v>Capital Account + Reserves and Surplus</v>
+      </c>
+      <c r="E130" t="str">
+        <v>securities premium | premium</v>
+      </c>
+      <c r="F130" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G130" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="H130" t="str">
+        <v>Reserves and Surplus</v>
+      </c>
+      <c r="I130" t="str">
+        <v>Securities Premium</v>
+      </c>
+      <c r="J130" t="str">
+        <v>Overrides H1 to Liability</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C131" t="str">
+        <v>Capital Account - Reserves and Surplus</v>
+      </c>
+      <c r="D131" t="str">
+        <v>Capital Account + Reserves and Surplus</v>
+      </c>
+      <c r="E131" t="str">
+        <v>capital redemption</v>
+      </c>
+      <c r="F131" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G131" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="H131" t="str">
+        <v>Reserves and Surplus</v>
+      </c>
+      <c r="I131" t="str">
+        <v>Capital Redemption Reserve</v>
+      </c>
+      <c r="J131" t="str">
+        <v>Overrides H1 to Liability</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C132" t="str">
+        <v>Capital Account - Reserves and Surplus</v>
+      </c>
+      <c r="D132" t="str">
+        <v>Capital Account + Reserves and Surplus</v>
+      </c>
+      <c r="E132" t="str">
+        <v>debenture</v>
+      </c>
+      <c r="F132" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G132" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="H132" t="str">
+        <v>Reserves and Surplus</v>
+      </c>
+      <c r="I132" t="str">
+        <v>Debenture Redemption Reserve</v>
+      </c>
+      <c r="J132" t="str">
+        <v>Overrides H1 to Liability</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C133" t="str">
+        <v>Capital Account - Reserves and Surplus</v>
+      </c>
+      <c r="D133" t="str">
+        <v>Capital Account + Reserves and Surplus</v>
+      </c>
+      <c r="E133" t="str">
+        <v>revaluation</v>
+      </c>
+      <c r="F133" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G133" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="H133" t="str">
+        <v>Reserves and Surplus</v>
+      </c>
+      <c r="I133" t="str">
+        <v>Revaluation Reserve</v>
+      </c>
+      <c r="J133" t="str">
+        <v>Overrides H1 to Liability</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C134" t="str">
+        <v>Capital Account - Reserves and Surplus</v>
+      </c>
+      <c r="D134" t="str">
+        <v>Capital Account + Reserves and Surplus</v>
+      </c>
+      <c r="E134" t="str">
+        <v>share option</v>
+      </c>
+      <c r="F134" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G134" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="H134" t="str">
+        <v>Reserves and Surplus</v>
+      </c>
+      <c r="I134" t="str">
+        <v>Share Option Outstanding Account</v>
+      </c>
+      <c r="J134" t="str">
+        <v>Overrides H1 to Liability</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C135" t="str">
+        <v>Capital Account - Reserves and Surplus</v>
+      </c>
+      <c r="D135" t="str">
+        <v>Capital Account + Reserves and Surplus</v>
+      </c>
+      <c r="E135" t="str">
+        <v>general</v>
+      </c>
+      <c r="F135" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G135" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="H135" t="str">
+        <v>Reserves and Surplus</v>
+      </c>
+      <c r="I135" t="str">
+        <v>General Reserve</v>
+      </c>
+      <c r="J135" t="str">
+        <v>Overrides H1 to Liability</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C136" t="str">
+        <v>Capital Account - Reserves and Surplus</v>
+      </c>
+      <c r="D136" t="str">
+        <v>Capital Account + Reserves and Surplus</v>
+      </c>
+      <c r="E136" t="str">
+        <v>(none matched)</v>
+      </c>
+      <c r="F136" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G136" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="H136" t="str">
+        <v>Reserves and Surplus</v>
+      </c>
+      <c r="I136" t="str">
+        <v>Surplus in Statement of Profit and Loss</v>
+      </c>
+      <c r="J136" t="str">
+        <v>Default</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C137" t="str">
+        <v>Capital Account</v>
+      </c>
+      <c r="D137" t="str">
+        <v>Capital Account (Company only)</v>
+      </c>
+      <c r="E137" t="str">
+        <v>share capital</v>
+      </c>
+      <c r="F137" t="str">
+        <v>Company</v>
+      </c>
+      <c r="G137" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="H137" t="str">
+        <v>Share Capital</v>
+      </c>
+      <c r="I137" t="str">
+        <v>Equity - fully paid up</v>
+      </c>
+      <c r="J137" t="str">
+        <v>Company entities only</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C138" t="str">
+        <v>Capital Account</v>
+      </c>
+      <c r="D138" t="str">
+        <v>Capital Account (Company only)</v>
+      </c>
+      <c r="E138" t="str">
+        <v>preference</v>
+      </c>
+      <c r="F138" t="str">
+        <v>Company</v>
+      </c>
+      <c r="G138" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="H138" t="str">
+        <v>Share Capital</v>
+      </c>
+      <c r="I138" t="str">
+        <v>Preference - fully paid up</v>
+      </c>
+      <c r="J138" t="str">
+        <v>Company entities only</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C139" t="str">
+        <v>Capital Account</v>
+      </c>
+      <c r="D139" t="str">
+        <v>Capital Account (Partnership/LLP only)</v>
+      </c>
+      <c r="E139" t="str">
+        <v>(all)</v>
+      </c>
+      <c r="F139" t="str">
+        <v>Partnership/LLP</v>
+      </c>
+      <c r="G139" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="H139" t="str">
+        <v>Partners' Capital Account</v>
+      </c>
+      <c r="I139" t="str">
+        <v>Partners' Capital Account</v>
+      </c>
+      <c r="J139" t="str">
+        <v>Partnership/LLP entities only</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C140" t="str">
+        <v>Capital Account</v>
+      </c>
+      <c r="D140" t="str">
+        <v>Capital Account (Other entities)</v>
+      </c>
+      <c r="E140" t="str">
+        <v>(all)</v>
+      </c>
+      <c r="F140" t="str">
+        <v>Other</v>
+      </c>
+      <c r="G140" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="H140" t="str">
+        <v>Owners' Capital Account</v>
+      </c>
+      <c r="I140" t="str">
+        <v>Owners' Capital Account</v>
+      </c>
+      <c r="J140" t="str">
+        <v>Individual/HUF/Sole Proprietorship</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="str">
+        <v>Auto</v>
+      </c>
+      <c r="C141" t="str">
+        <v>Profit &amp; Loss A/c Override</v>
+      </c>
+      <c r="D141" t="str">
+        <v>Parent/Group = Primary</v>
+      </c>
+      <c r="E141" t="str">
+        <v>profit | loss | profit &amp; loss</v>
+      </c>
+      <c r="F141" t="str">
+        <v>Any</v>
+      </c>
+      <c r="G141" t="str">
+        <v>Liability</v>
+      </c>
+      <c r="H141" t="str">
+        <v>Reserves and Surplus</v>
+      </c>
+      <c r="I141" t="str">
+        <v>Surplus in Statement of Profit and Loss</v>
+      </c>
+      <c r="J141" t="str">
+        <v>Overrides H1 to Liability</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="str">
         <v>H1 Logic</v>
       </c>
-      <c r="C127" t="str">
+      <c r="C142" t="str">
         <v>H1 Logic</v>
       </c>
-      <c r="D127" t="str">
+      <c r="D142" t="str">
         <v/>
       </c>
-      <c r="E127" t="str">
+      <c r="E142" t="str">
+        <v>Primary Group contains 'Sales Accounts'</v>
+      </c>
+      <c r="F142" t="str">
+        <v/>
+      </c>
+      <c r="G142" t="str">
+        <v>H1 = Income</v>
+      </c>
+      <c r="H142" t="str">
+        <v/>
+      </c>
+      <c r="I142" t="str">
+        <v/>
+      </c>
+      <c r="J142" t="str">
+        <v>Sales Accounts always Income</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="str">
+        <v>H1 Logic</v>
+      </c>
+      <c r="C143" t="str">
+        <v>H1 Logic</v>
+      </c>
+      <c r="D143" t="str">
+        <v/>
+      </c>
+      <c r="E143" t="str">
+        <v>Is Revenue = Yes and Balance &lt; 0</v>
+      </c>
+      <c r="F143" t="str">
+        <v/>
+      </c>
+      <c r="G143" t="str">
+        <v>H1 = Expense</v>
+      </c>
+      <c r="H143" t="str">
+        <v/>
+      </c>
+      <c r="I143" t="str">
+        <v/>
+      </c>
+      <c r="J143" t="str">
+        <v>Revenue accounts</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="str">
+        <v>H1 Logic</v>
+      </c>
+      <c r="C144" t="str">
+        <v>H1 Logic</v>
+      </c>
+      <c r="D144" t="str">
+        <v/>
+      </c>
+      <c r="E144" t="str">
+        <v>Is Revenue = Yes and Balance &gt;= 0</v>
+      </c>
+      <c r="F144" t="str">
+        <v/>
+      </c>
+      <c r="G144" t="str">
+        <v>H1 = Income</v>
+      </c>
+      <c r="H144" t="str">
+        <v/>
+      </c>
+      <c r="I144" t="str">
+        <v/>
+      </c>
+      <c r="J144" t="str">
+        <v>Revenue accounts</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="str">
+        <v>H1 Logic</v>
+      </c>
+      <c r="C145" t="str">
+        <v>H1 Logic</v>
+      </c>
+      <c r="D145" t="str">
+        <v/>
+      </c>
+      <c r="E145" t="str">
+        <v>Is Revenue = No and Balance &lt; 0</v>
+      </c>
+      <c r="F145" t="str">
+        <v/>
+      </c>
+      <c r="G145" t="str">
+        <v>H1 = Asset</v>
+      </c>
+      <c r="H145" t="str">
+        <v/>
+      </c>
+      <c r="I145" t="str">
+        <v/>
+      </c>
+      <c r="J145" t="str">
+        <v>Non-revenue accounts</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="str">
+        <v>H1 Logic</v>
+      </c>
+      <c r="C146" t="str">
+        <v>H1 Logic</v>
+      </c>
+      <c r="D146" t="str">
+        <v/>
+      </c>
+      <c r="E146" t="str">
+        <v>Is Revenue = No and Balance &gt;= 0</v>
+      </c>
+      <c r="F146" t="str">
+        <v/>
+      </c>
+      <c r="G146" t="str">
+        <v>H1 = Liability</v>
+      </c>
+      <c r="H146" t="str">
+        <v/>
+      </c>
+      <c r="I146" t="str">
+        <v/>
+      </c>
+      <c r="J146" t="str">
+        <v>Non-revenue accounts</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="str">
+        <v>H1 Logic</v>
+      </c>
+      <c r="C147" t="str">
+        <v>H1 Logic</v>
+      </c>
+      <c r="D147" t="str">
+        <v/>
+      </c>
+      <c r="E147" t="str">
         <v>If Closing Balance == 0 use Opening Balance</v>
       </c>
-      <c r="F127" t="str">
+      <c r="F147" t="str">
         <v/>
       </c>
-      <c r="G127" t="str">
+      <c r="G147" t="str">
         <v>Balance used for H1 sign</v>
       </c>
-      <c r="H127" t="str">
+      <c r="H147" t="str">
         <v/>
       </c>
-      <c r="I127" t="str">
+      <c r="I147" t="str">
         <v/>
       </c>
-      <c r="J127" t="str">
+      <c r="J147" t="str">
         <v>Balance selection</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J127"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J147"/>
   </ignoredErrors>
 </worksheet>
 </file>
